--- a/weight_change.xlsx
+++ b/weight_change.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8167CBEA-979E-45FD-ADD9-04E4E5FB5D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2F0221-21E9-41E7-B2C3-B039B2F86D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <t xml:space="preserve"> Clothing Size </t>
   </si>
   <si>
-    <t xml:space="preserve"> Physical Characteristics</t>
+    <t>Phys</t>
   </si>
   <si>
     <t xml:space="preserve"> Small (34") </t>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/weight_change.xlsx
+++ b/weight_change.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2F0221-21E9-41E7-B2C3-B039B2F86D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thard\OneDrive\Pictures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AB289-69E9-4BCF-82B8-ECBDE833CA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19850" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>BMI</t>
   </si>
@@ -214,13 +219,49 @@
   </si>
   <si>
     <t xml:space="preserve"> At the final destination of a BMI of 60, {character_stats.name} is at the peak of her journey. Her body has transitioned into its final form, with every inch of her being soft and pliable. {character_stats.name}'s face is incredibly round and full, with a thick quadruple chin flowing seamlessly into her neck and shoulders. Her cheeks are so full they nearly obscure her eyes when she smiles. {character_stats.name}'s arms have reached their maximum girth and jiggle with even the slightest movement. Her bust, having reached an astonishing 66", barely fits into size 8XL clothing. {character_stats.name}'s waist is enveloped by a thick, soft apron of flesh that hangs down to her thighs. Her hips and buttocks have expanded to incredible proportions, with each cheek as wide as she is tall. {character_stats.name}'s legs are like tree trunks, with her thighs constantly rubbing together, making even the shortest walks a monumental effort. She is essentially immobile and requires assistance for all daily activities. {character_stats.name} is now a paragon of softness and excess, her size dominating every aspect of her life. While her quality of life and health are significantly impacted, {character_stats.name} has reached her ultimate goal, becoming the embodiment of her desires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 41, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust is 52", fitting comfortably in a size 3XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are extremely wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are incredibly thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and may require assistance or specialized equipment for some tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With a BMI of 43, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 54", fitting either a very snug 3XL or a slim 4XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for many tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 45, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 56", fitting comfortably in a size 4XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for many tasks. She may have trouble fitting into standard furniture or vehicles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With a BMI of 47, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 58", fitting either a very snug 4XL or a slim 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and may require bariatric equipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 49, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 60", fitting comfortably in a size 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size significantly impacts her quality of life and overall health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 51, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust is 60", fitting comfortably in a size 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size significantly impacts her quality of life and overall health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With a BMI of 53, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 62", fitting comfortably in a size 6XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she may experience weight-related health complications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> With a BMI of 54, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 62", fitting comfortably in a size 6XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she may experience weight-related health complications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 56, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 57, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 58, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> At a BMI of 59, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,19 +626,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>19</v>
       </c>
@@ -619,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -630,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21</v>
       </c>
@@ -641,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -652,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>23</v>
       </c>
@@ -663,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>24</v>
       </c>
@@ -674,7 +715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25</v>
       </c>
@@ -685,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>26</v>
       </c>
@@ -696,7 +737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>27</v>
       </c>
@@ -707,7 +748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
@@ -718,7 +759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>29</v>
       </c>
@@ -729,7 +770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>30</v>
       </c>
@@ -740,7 +781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>31</v>
       </c>
@@ -751,7 +792,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>32</v>
       </c>
@@ -762,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>33</v>
       </c>
@@ -773,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>34</v>
       </c>
@@ -784,7 +825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>35</v>
       </c>
@@ -795,7 +836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -806,7 +847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>37</v>
       </c>
@@ -817,7 +858,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>38</v>
       </c>
@@ -828,7 +869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>39</v>
       </c>
@@ -839,7 +880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>40</v>
       </c>
@@ -850,91 +891,223 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C43" t="s">
         <v>60</v>
       </c>
     </row>

--- a/weight_change.xlsx
+++ b/weight_change.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thard\OneDrive\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\text-generation-webui-main\text-generation-webui\extensions\wg_vm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AB289-69E9-4BCF-82B8-ECBDE833CA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBC905F-069D-4510-8FC0-4BB44D2B8FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19850" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18336" yWindow="0" windowWidth="27840" windowHeight="25296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,51 +50,27 @@
     <t xml:space="preserve"> Small (34") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 20, {character_stats.name} has a lean, athletic build. Her face is slender with defined cheekbones and a sharp jawline. Her neck is long and graceful, and her collarbone is visible. {character_stats.name}'s arms are toned, with slight definition when flexed. Her chest is proportionate to her frame, with a 34" bust fitting comfortably in a size small. {character_stats.name}'s waist is slim, and her abs are visible when she tenses her stomach. Her hips are narrow, and her buttocks are firm and perky. {character_stats.name}'s legs are long and lean, with defined calves and thighs.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Small (34.5") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 21, {character_stats.name}'s face remains slender, with a slight softening around her cheeks. Her neck appears slightly less defined, but still long and elegant. {character_stats.name}'s arms maintain their tone, with a bit less definition when flexed. Her chest remains proportionate, with a slight increase to a 34.5" bust, still fitting comfortably in a size small. {character_stats.name}'s waist remains slim, with her abs slightly less pronounced. Her hips are still narrow, and her buttocks maintain their firm appearance. {character_stats.name}'s legs are still long and lean, with a slight decrease in muscle definition.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Small (35") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 22, {character_stats.name}'s face shows a bit more fullness in her cheeks, but her jawline remains defined. Her neck is still long, but less defined. {character_stats.name}'s arms are less toned, but still appear slender. Her bust has increased to 35", nearing the upper limit of a size small. {character_stats.name}'s waist is less pronounced, with her abs becoming less visible. Her hips are slightly wider, and her buttocks are a bit less firm. {character_stats.name}'s legs maintain their length, but with a slight decrease in muscle tone.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Small/Medium (35.5") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 23, {character_stats.name}'s face is slightly rounder, with fuller cheeks and a softer jawline. Her neck appears a bit shorter, but still slender. {character_stats.name}'s arms have lost some definition, appearing softer. Her bust is now 35.5", fitting either a snug small or a slim medium. {character_stats.name}'s waist is softer, with no visible abs. Her hips are slightly wider, and her buttocks are less perky, with a bit more fullness. {character_stats.name}'s legs are still long, but with less definition and a slight increase in thickness.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medium (36") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 24, {character_stats.name}'s face is rounder, with full cheeks and a softer jawline. Her neck appears shorter, blending more into her shoulders. {character_stats.name}'s arms are soft, with no visible tone. Her bust has increased to 36", fitting comfortably in a size medium. {character_stats.name}'s waist has a small amount of extra softness, with a slight roll when she sits. Her hips are wider, and her buttocks are fuller and less firm. {character_stats.name}'s legs have lost definition, appearing softer and slightly thicker.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Medium (37") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 25, {character_stats.name}'s face is round, with full cheeks and a softened jawline. Her neck is shorter, with less definition between her neck and shoulders. {character_stats.name}'s arms are soft and slightly fuller. Her bust is now 37", still fitting a medium but with a bit less room. {character_stats.name}'s waist has a noticeable layer of softness, with a small roll visible when she sits. Her hips are wider, and her buttocks are fuller and softer, with a slight jiggle. {character_stats.name}'s legs are thicker, with no visible muscle tone, but still proportionate to her frame.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Large (38") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 25, {character_stats.name}'s face is rounder, with fuller cheeks and a softer jawline. Her neck is shorter, with a slight hint of a double chin. {character_stats.name}'s arms are soft and slightly larger, with no visible muscle tone. Her bust is now 38", fitting comfortably in a size large. {character_stats.name}'s waist has a noticeable layer of softness, with a small roll visible when she sits. Her hips are wider, and her buttocks are fuller and softer, with a slight jiggle. {character_stats.name}'s legs are thicker, with no visible muscle tone, but still proportionate to her frame.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Large (39") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 26, {character_stats.name}'s face is rounder, with full cheeks and a more noticeable double chin. Her neck appears shorter and thicker. {character_stats.name}'s arms are larger and softer, with a slight wiggle when she moves. Her bust has increased to 39", filling out her size large tops more fully. {character_stats.name}'s waist has a more pronounced layer of softness, with a small roll visible even when standing. Her hips are wider, and her buttocks are larger and softer, with more noticeable jiggling. {character_stats.name}'s legs are thicker, with a slight rubbing together at the thighs when she walks.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Large (40") </t>
   </si>
   <si>
@@ -104,157 +80,181 @@
     <t xml:space="preserve"> Large (41") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 28, {character_stats.name}'s face is very round, with full cheeks and a deep double chin. Her neck is short and thick, with less definition between her neck and shoulders. {character_stats.name}'s arms are large and soft, with a prominent jiggle when she moves. Her bust has increased to 41", with some of her size large tops feeling snug. {character_stats.name}'s waist has a thick layer of softness, with rolls visible even when standing. Her hips are very wide, and her buttocks are large and soft, with a pronounced jiggle. {character_stats.name}'s legs are very thick, with her thighs constantly rubbing together when she walks.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Large/XL (42") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 29, {character_stats.name}'s face is very round and full, with a deep double chin and softened features. Her neck is short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are large and soft, with a hefty jiggle when she moves. Her bust is now 42", fitting either a very snug large or a slim extra-large. {character_stats.name}'s waist has a significant layer of softness, with prominent rolls visible at all times. Her hips are very wide, and her buttocks are large and soft, with a heavy jiggle. {character_stats.name}'s legs are very thick, with her thighs constantly rubbing together, causing some chafing and discomfort when she walks for longer periods.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> XL (42") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 30, {character_stats.name}'s face is very round and full, with a deep double chin and softened features. Her neck is short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are large and soft, with a noticeable jiggle when she moves. Her bust is 42", fitting comfortably in a size XL. {character_stats.name}'s waist has a significant layer of softness, with prominent rolls visible when she sits or bends. Her hips are very wide, and her buttocks are large and soft, with a heavy jiggle. {character_stats.name}'s legs are very thick, with her thighs constantly rubbing together, causing some discomfort when she walks for longer periods.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> XL (43") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 31, {character_stats.name}'s face appears slightly larger, with her double chin becoming more pronounced. Her neck is shorter and thicker, with less definition between her chin and neck. {character_stats.name}'s arms are a bit larger and softer, with a more noticeable jiggle. Her bust has increased to 43", still fitting in a size XL but with less room. {character_stats.name}'s waist has a slightly thicker layer of softness, with rolls becoming more prominent. Her hips are a bit wider, and her buttocks are slightly larger and softer, with a more pronounced jiggle. {character_stats.name}'s legs are a bit thicker, with her thighs rubbing together more noticeably, causing some chafing.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> XL (44") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 32, {character_stats.name}'s face appears rounder, with her double chin becoming more pronounced and her facial features softening further. Her neck is shorter and thicker, with almost no definition between her chin and neck. {character_stats.name}'s arms are larger and softer, with a heavy jiggle when she moves. Her bust has increased to 44", straining against some of her XL tops. {character_stats.name}'s waist has a thicker layer of softness, with deep rolls visible at all times. Her hips are wider, and her buttocks are larger and softer, with a heavy jiggle. {character_stats.name}'s legs are thicker, with her thighs constantly rubbing together, causing frequent chafing and discomfort.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> XL (45") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 33, {character_stats.name}'s face appears even rounder, with her double chin becoming more prominent and her cheeks fuller. Her neck is shorter and thicker, blending into her shoulders. {character_stats.name}'s arms are larger and softer, with a substantial jiggle when she moves. Her bust has increased to 45", with her XL tops feeling snug. {character_stats.name}'s waist has a significant layer of softness, with deep rolls visible even when standing. Her hips are wider, and her buttocks are larger and softer, with a pronounced jiggle. {character_stats.name}'s legs are very thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for longer periods challenging.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> XL/2XL (46") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 34, {character_stats.name}'s face is extremely round, with a prominent double chin and very full cheeks. Her neck is short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are very large and soft, with a heavy jiggle when she moves. Her bust has increased to 46", fitting either a very snug XL or a slim 2XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are very wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are extremely thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2XL (47") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 35, {character_stats.name}'s face appears even rounder, with her double chin becoming more prominent and her facial features softening further. Her neck is shorter and thicker, blending seamlessly into her shoulders. {character_stats.name}'s arms are very large and soft, with a substantial jiggle when she moves. Her bust has increased to 47", fitting comfortably in a size 2XL. {character_stats.name}'s waist has a thick layer of softness, with deep rolls visible at all times. Her hips are very wide, and her buttocks are very large and soft, with a pronounced jiggle. {character_stats.name}'s legs are extremely thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and tiring.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2XL (48") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 36, {character_stats.name}'s face is extremely round, with a prominent double chin and very full cheeks. Her neck is short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are very large and soft, with a substantial jiggle when she moves. Her bust is 48", fitting comfortably in a size 2XL. {character_stats.name}'s waist has a thick layer of softness, with deep rolls visible at all times. Her hips are very wide, and her buttocks are very large and soft, with a pronounced jiggle. {character_stats.name}'s legs are extremely thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and tiring.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2XL (50") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 37, {character_stats.name}'s face appears slightly larger, with her double chin becoming more pronounced and her cheeks fuller. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are extremely large and soft, with a heavy jiggle when she moves. Her bust has increased to 50", straining against some of her 2XL tops. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are extremely wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are incredibly thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2XL/3XL (51") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 38, {character_stats.name}'s face is incredibly round, with a very prominent double chin and extremely full cheeks. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 51", fitting either a very snug 2XL or a slim 3XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are extremely wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are incredibly thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3XL (52") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 39, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 52", fitting comfortably in a size 3XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are extremely wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are incredibly thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and may require assistance or specialized equipment for some tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 40, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust is 52", fitting comfortably in a size 3XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are extremely wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are incredibly thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and may require assistance or specialized equipment for some tasks.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 3XL/4XL (54") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 42, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 54", fitting either a very snug 3XL or a slim 4XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for many tasks.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4XL (56") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 44, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 56", fitting comfortably in a size 4XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for many tasks. She may have trouble fitting into standard furniture or vehicles.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4XL/5XL (58") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 46, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 58", fitting either a very snug 4XL or a slim 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and may require bariatric equipment.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5XL (60") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 48, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 60", fitting comfortably in a size 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size significantly impacts her quality of life and overall health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 50, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust is 60", fitting comfortably in a size 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size significantly impacts her quality of life and overall health.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 6XL (62") </t>
   </si>
   <si>
-    <t xml:space="preserve"> With a BMI of 52, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 62", fitting comfortably in a size 6XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she may experience weight-related health complications.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 7XL (64") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At a BMI of 55, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8XL (66") </t>
   </si>
   <si>
-    <t xml:space="preserve"> At the final destination of a BMI of 60, {character_stats.name} is at the peak of her journey. Her body has transitioned into its final form, with every inch of her being soft and pliable. {character_stats.name}'s face is incredibly round and full, with a thick quadruple chin flowing seamlessly into her neck and shoulders. Her cheeks are so full they nearly obscure her eyes when she smiles. {character_stats.name}'s arms have reached their maximum girth and jiggle with even the slightest movement. Her bust, having reached an astonishing 66", barely fits into size 8XL clothing. {character_stats.name}'s waist is enveloped by a thick, soft apron of flesh that hangs down to her thighs. Her hips and buttocks have expanded to incredible proportions, with each cheek as wide as she is tall. {character_stats.name}'s legs are like tree trunks, with her thighs constantly rubbing together, making even the shortest walks a monumental effort. She is essentially immobile and requires assistance for all daily activities. {character_stats.name} is now a paragon of softness and excess, her size dominating every aspect of her life. While her quality of life and health are significantly impacted, {character_stats.name} has reached her ultimate goal, becoming the embodiment of her desires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 41, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust is 52", fitting comfortably in a size 3XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are extremely wide, and her buttocks are very large and soft, with a heavy jiggle. {character_stats.name}'s legs are incredibly thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and may require assistance or specialized equipment for some tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> With a BMI of 43, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 54", fitting either a very snug 3XL or a slim 4XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for many tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 45, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 56", fitting comfortably in a size 4XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for many tasks. She may have trouble fitting into standard furniture or vehicles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> With a BMI of 47, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 58", fitting either a very snug 4XL or a slim 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and may require bariatric equipment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 49, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 60", fitting comfortably in a size 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size significantly impacts her quality of life and overall health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 51, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust is 60", fitting comfortably in a size 5XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size significantly impacts her quality of life and overall health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> With a BMI of 53, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 62", fitting comfortably in a size 6XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she may experience weight-related health complications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> With a BMI of 54, {character_stats.name}'s face appears even rounder, with her double chin becoming more pronounced and her cheeks extremely full. Her neck is very short and thick, blending seamlessly into her shoulders. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 62", fitting comfortably in a size 6XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she may experience weight-related health complications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 56, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 57, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 58, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> At a BMI of 59, {character_stats.name}'s face is incredibly round, with an extremely prominent double chin and very full cheeks. Her neck is very short and thick, with no definition between her chin and neck. {character_stats.name}'s arms are massive and soft, with a heavy jiggle when she moves. Her bust has increased to 64", fitting comfortably in a size 7XL. {character_stats.name}'s waist has a substantial layer of softness, with deep rolls visible at all times. Her hips are incredibly wide, and her buttocks are extremely large and soft, with a heavy jiggle. {character_stats.name}'s legs are massively thick, with her thighs constantly rubbing together, causing frequent chafing and discomfort, making walking for even short periods challenging and exhausting. {character_stats.name} experiences significant difficulty with mobility and daily activities due to her size, and requires assistance or specialized equipment for most tasks. She has trouble fitting into standard furniture or vehicles and requires bariatric equipment. {character_stats.name}'s size severely impacts her quality of life and overall health, and she likely experiences multiple weight-related health complications.</t>
+    <t>With a BMI of 20, {character_stats.name} is looking fit as fuck. Her jawline is sharp, her neck is long and elegant, and her waist is tiny. Her arms are toned, but not too muscular, and her tits are the perfect size for her frame. Her hips are narrow, and her ass is firm and perky. Her legs are long and lean, with toned calves and thighs.</t>
+  </si>
+  <si>
+    <t>At a BMI of 21, {character_stats.name}'s face is still pretty slender, but her cheeks are starting to look a little fuller. Her neck is a bit less defined, but still hot. Her arms are a little softer, but nothing too noticeable. Her tits are a little bigger, but still fit in a size small. Her waist is still slim, but her abs are a little less visible. Her hips are still narrow, and her ass is still firm. Her legs are still long and lean, but not quite as muscular.</t>
+  </si>
+  <si>
+    <t>With a BMI of 22, {character_stats.name}'s face is starting to look a little rounder, but her jawline is still defined. Her neck is a little shorter, but not too noticeable. Her arms are less toned, but still slender. Her tits are getting closer to the size of a large, but still fit in a size small. Her waist is less defined, and her abs are starting to disappear. Her hips are a little wider, and her ass is a little less firm. Her legs are still long, but not as muscular as before.</t>
+  </si>
+  <si>
+    <t>At a BMI of 23, {character_stats.name}'s face is definitely rounder, with fuller cheeks and a softer jawline. Her neck is shorter, but still looks good. Her arms are noticeably softer, and her tits are bigger, fitting snugly in a size small or loosely in a size medium. Her waist is softer, with no visible abs. Her hips are wider, and her ass is less perky with a little more fullness. Her legs are still long, but less muscular and a little thicker.</t>
+  </si>
+  <si>
+    <t>With a BMI of 24, {character_stats.name}'s face is rounder, with full cheeks and a softer jawline. Her neck is shorter and blends into her shoulders. Her arms are soft and flabby, with no visible muscle tone. Her tits are now a full size medium, and her waist has a small roll when she sits. Her hips are wider, and her ass is fuller and less firm. Her legs are thicker and softer, with no visible muscle tone.</t>
+  </si>
+  <si>
+    <t>With a BMI of 25, {character_stats.name} starts to notice some changes in her body. Her face is a little fuller and rounder, with slightly chubbier cheeks. Her waist is a bit thicker, and her love handles are starting to show. Her hips are wider, and her thighs are a little thicker too. Her clothes are starting to feel a little tighter, but she still feels pretty good about herself.</t>
+  </si>
+  <si>
+    <t>At a BMI of 26, {character_stats.name}'s body continues to change. Her face is rounder, and her double chin is more pronounced. Her waist is thicker, and her belly is starting to pooch out a little. Her hips and thighs are thicker too, and she's starting to get some cellulite on her butt. She's having to buy bigger clothes, and she's starting to feel a little self-conscious about her weight.</t>
+  </si>
+  <si>
+    <t>With a BMI of 27, {character_stats.name}'s body is definitely changing. Her face is full and round, with a soft jawline. Her waist is thick and soft, with a noticeable roll of fat that hangs over her pants. Her hips and thighs are thick and curvy, with more cellulite and stretch marks. Her clothes are getting tight, and she's starting to feel uncomfortable in her own skin. She's starting to avoid social situations that involve wearing revealing clothing or engaging in physical activity</t>
+  </si>
+  <si>
+    <t>At a BMI of 28, {character_stats.name}'s body is becoming more and more overweight. Her face is round and puffy, with a double chin that wobbles when she moves. Her neck is thick and fleshy, with rolls of fat that spill over her collar. Her waist is thick and soft, with a large roll of fat that hangs over her pants. Her hips and thighs are huge and curvy, with lots of cellulite and stretch marks. She's having trouble finding clothes that fit, and she's starting to feel embarrassed about her weight.</t>
+  </si>
+  <si>
+    <t>With a BMI of 29, {character_stats.name}'s body is definitely overweight. Her face is round and bloated, with puffy cheeks and a weak chin. Her neck is thick and fleshy, with rolls of fat that spill over her collar. Her arms are flabby and jiggly, with no tone or definition. Her waist is thick and soft, with a large roll of fat that hangs over her pants. Her hips and thighs are enormous, with lots of cellulite and stretch marks. She's having trouble finding clothes that fit, and she's starting to feel self-conscious about her weight. She's starting to notice that she's getting winded more easily, and she's having trouble keeping up with her friends when they go out.</t>
+  </si>
+  <si>
+    <t>With a BMI of 30, {character_stats.name}'s body is getting even thicker and softer. Her face is round and full, with chubby cheeks that she can't help but squeeze. Her neck is thick and fleshy, with rolls of fat that spill over her collar and make it hard to wear her favorite tops. Her arms are soft and jiggly, with no muscle tone to speak of. Her waist is thick and squishy, with a big roll of fat that hangs over her pants and jiggles when she walks. Her hips and thighs are huge and thick, with lots of cellulite and stretch marks that she can't help but trace with her fingers. She's having trouble finding clothes that fit, but she can't help but feel aroused when she catches a glimpse of her thick, curvy body in the mirror.</t>
+  </si>
+  <si>
+    <t>At a BMI of 31, {character_stats.name}'s body is getting even bigger and more voluptuous. Her face is round and full, with a cute little double chin that wobbles when she talks. Her neck is thick and fleshy, with rolls of fat that make it hard for her to turn her head. Her arms are huge and soft, with lots of squishy fat that jiggles when she moves. Her waist is thick and soft, with a big roll of fat that hangs over her pants and makes it hard for her to bend over. Her hips and thighs are enormous, with lots of cellulite and stretch marks that she can't help but admire. She's starting to feel self-conscious about her weight, but she can't help but feel aroused when she sees how big and thick she's becoming.</t>
+  </si>
+  <si>
+    <t>With a BMI of 32, {character_stats.name}'s body is getting even more massive and imposing. Her face is round and full, with big, pouty lips that she loves to suck on. Her neck is thick and fleshy, with rolls of fat that make it hard for her to breathe. Her arms are huge and soft, with lots of squishy fat that jiggles when she moves. Her waist is thick and soft, with a big roll of fat that hangs over her pants and makes it hard for her to sit down. Her hips and thighs are enormous, with lots of cellulite and stretch marks that she can't help but admire. She's having trouble finding clothes that fit, but she can't help but feel aroused when she sees how massive and powerful she's becoming.</t>
+  </si>
+  <si>
+    <t>At a BMI of 33, {character_stats.name}'s body is getting even more huge and unwieldy. Her face is round and full, with big, doe-like eyes that seem to beg for attention. Her neck is thick and fleshy, with rolls of fat that make it hard for her to swallow. Her arms are huge and soft, with lots of squishy fat that jiggles when she moves. Her waist is thick and soft, with a big roll of fat that hangs over her pants and makes it hard for her to move. Her hips and thighs are enormous, with lots of cellulite and stretch marks that she can't help but admire. She's starting to feel disgusted with herself, but she can't help but feel aroused when she sees how huge and overwhelming her body has become.</t>
+  </si>
+  <si>
+    <t>With a BMI of 34, {character_stats.name}'s body is getting even more massive and intimidating. Her face is round and full, with a cute little button nose that seems to get lost in her chubby cheeks. Her neck is thick and fleshy, with rolls of fat that make it hard for her to breathe. Her arms are huge and soft, with lots of squishy fat that jiggles when she moves. Her waist is thick and soft, with a big roll of fat that hangs over her pants and makes it hard for her to stand up. Her hips and thighs are enormous, with lots of cellulite and stretch marks that she can't help but admire. She's starting to feel ashamed of herself, but she can't help but feel aroused when she sees how massive and all-consuming her body has become.</t>
+  </si>
+  <si>
+    <t>With a BMI of 35, {character_stats.name}'s body is becoming even more enormous and overwhelming. Her face is round and puffy, with thick, juicy lips that seem to beg for attention. Her neck is thick and fleshy, with rolls of fat that make it hard for her to speak. Her arms are massive and soft, with layers of squishy fat that jiggle and wobble with every movement. Her waist is thick and soft, with a huge roll of fat that hangs over her pants and makes it hard for her to walk. Her hips and thighs are colossal, with so much cellulite and stretch marks that she can't help but run her hands over them in awe. She's starting to feel disgusted with herself, but she can't deny the sick pleasure she gets from seeing how much she's grown. Even though she knows she's repulsive to society's standards, she can't help but feel a sense of perverse pride in her massive size. Her beauty is still apparent, but it's now hidden under layers of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 36, {character_stats.name}'s body is continuing to expand to grotesque proportions. Her face is now a puffy, round mess, with chins upon chins cascading down her neck. Her arms are so massive that they jiggle and slap against her sides with every step she takes, leaving her constantly out of breath. Her waist has disappeared completely, replaced by a mountainous belly that hangs down to her thighs and makes it impossible for her to see her own feet. Her hips and thighs are so enormous that they rub together and chafe, causing painful sores that ooze and bleed. She's disgusted with herself, but at the same time, she can't help but feel a sickening sense of satisfaction at the thought of how much space she takes up. Even though she's repulsed by her own reflection, there's still a glimmer of beauty hidden beneath the layers of fat, a mysterious allure that draws people in despite their better judgment.</t>
+  </si>
+  <si>
+    <t>With a BMI of 37, {character_stats.name}'s body continues to swell, becoming even more massive and overwhelming. Her face is now almost unrecognizable, with puffy cheeks and a double chin that seems to have a life of its own. Her arms are colossal, with thick layers of fat that jiggle and wobble with every movement. Her belly is so huge that it feels like it's consuming her entire body, making it impossible for her to tie her own shoes or even see her own feet. Her hips and thighs are gargantuan, with rolls of fat that spill over her clothes and make it difficult for her to walk. She's starting to feel like a prisoner in her own body, but at the same time, she can't help but be fascinated by her own size. Even though she's disgusted by what she's become, there's still a part of her that finds it strangely erotic. Her beauty is still there, but it's now distorted and hidden beneath layers of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 38, {character_stats.name}'s body is getting even more massive, making her feel both repulsed and fascinated by her own size. Her face is now completely round and puffy, with chubby cheeks that swallow up her other features. Her arms are so huge that they look like they belong to a sumo wrestler, with thick rolls of fat that jiggle and wobble with every movement. Her belly is so enormous that it feels like it's taking over her entire body, making it impossible for her to see anything below her waist. Her hips and thighs are so massive that they rub together and chafe, causing painful sores that make it difficult for her to walk. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sick sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now hidden beneath layers of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 39, {character_stats.name}'s body is now teetering on the edge of severe obesity, and she's starting to feel both terrified and excited by her massive size. Her face is now completely swallowed up by fat, with only her tiny eyes and mouth visible. Her arms are so huge that they look like they could crush someone, with thick rolls of fat that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's suffocating her, making it impossible for her to breathe properly or even move around easily. Her hips and thighs are so massive that they're practically fused together, causing her to waddle when she walks. She's starting to feel like she's trapped in her own body, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a strange and mesmerizing figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 40, {character_stats.name}'s body is now severely obese, and she's starting to feel like she's hit rock bottom. Her face is now a grotesque mass of flesh, with rolls of fat that seem to have a life of their own. Her arms are so enormous that they look like they belong to a giant, with thick layers of blubber that make it difficult for her to move them. Her belly is so huge that it feels like it's going to explode, causing her constant pain and discomfort. Her hips and thighs are so massive that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sick sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 41, {character_stats.name}'s body is now severely obese, and she's starting to feel like she's drowning in her own flesh. Her face is now a distorted mess of fat, with rolls and folds that seem to multiply every day. Her arms are so massive that they feel like dead weight, with thick layers of blubber that jiggle and wobble with every movement. Her belly is so enormous that it feels like it's consuming her entire body, making it impossible for her to see anything below her massive gut. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 42, {character_stats.name}'s body is now severely obese, and she's starting to feel like she's become a prisoner in her own flesh. Her face is now a grotesque mass of fat, with rolls and folds that seem to have a life of their own. Her arms are so huge that they feel like they're going to burst, with thick layers of blubber that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's suffocating her, making it impossible for her to breathe properly or even move around easily. Her hips and thighs are so massive that they're practically fused together, causing her to waddle like a penguin when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and mesmerizing figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 43, {character_stats.name}'s body is becoming even more massive and overwhelming. Her face is now a round and puffy mess, with chins upon chins cascading down her neck. Her arms are so huge that they jiggle and slap against her sides with every step she takes, leaving her constantly out of breath. Her waist has disappeared completely, replaced by a mountainous belly that hangs down to her thighs and makes it impossible for her to see her own feet. Her hips and thighs are so enormous that they rub together and chafe, causing painful sores that ooze and bleed. She's disgusted with herself, but at the same time, she can't help but feel a sickening sense of satisfaction at the thought of how much space she takes up. Even though she's repulsed by her own reflection, there's still a glimmer of beauty hidden beneath the layers of fat, a mysterious allure that draws people in despite their better judgment.</t>
+  </si>
+  <si>
+    <t>With a BMI of 44, {character_stats.name}'s body is now on the brink of being morbidly obese, and she's starting to feel like she's reached a point of no return. Her face is now completely unrecognizable, with rolls of fat that swallow up her features and make it hard for her to breathe. Her arms are so massive that they feel like they're going to burst, with thick layers of blubber that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's crushing her, making it impossible for her to move around easily or even stand up straight. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 45, {character_stats.name}'s body is now morbidly obese, and she's starting to feel like she's living in a constant state of discomfort. Her face is now a grotesque mass of flesh, with rolls of fat that seem to have a life of their own. Her arms are so huge that they feel like they're going to explode, with thick layers of blubber that make it impossible for her to do even the simplest of tasks. Her belly is so enormous that it feels like it's going to burst, causing her constant pain and discomfort. Her hips and thighs are so massive that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sick sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 46, {character_stats.name}'s body is now beyond morbidly obese, and she's starting to feel like she's a ticking time bomb. Her face is now a distorted mess of fat, with rolls and folds that seem to multiply every day. Her arms are so massive that they feel like they're going to snap, with thick layers of blubber that jiggle and wobble with every movement. Her belly is so enormous that it feels like it's consuming her entire body, making it impossible for her to see anything below her massive gut. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 47, {character_stats.name}'s body is now so massive that it's starting to feel like it's taking over her life. Her face is now a bloated and puffy mess, with chins upon chins cascading down her neck. Her arms are so huge that they feel like they're going to fall off, with thick layers of blubber that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's suffocating her, making it impossible for her to breathe properly or even move around easily. Her hips and thighs are so massive that they're practically fused together, causing her to waddle like a penguin when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sickening sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and mesmerizing figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 48, {character_stats.name}'s body is now so enormous that it's starting to feel like it's crushing her. Her face is now a round and puffy mess, with rolls of fat that swallow up her features. Her arms are so massive that they feel like they're going to explode, with thick layers of blubber that make it impossible for her to do even the simplest of tasks. Her belly is so enormous that it feels like it's going to burst, causing her constant pain and discomfort. Her hips and thighs are so huge that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 49, {character_stats.name}'s body is now so huge that it's starting to feel like it's consuming her. Her face is now completely unrecognizable, with rolls of fat that swallow up her features and make it hard for her to breathe. Her arms are so massive that they feel like they're going to burst, with thick layers of blubber that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's crushing her, making it impossible for her to move around easily or even stand up straight. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 50, {character_stats.name}'s body is now super obese, and she's starting to feel like she's a slave to her food addiction. Her face is now a puffy and swollen mess, with rolls of fat that seem to multiply every day. Her arms are so massive that they feel like they're weighed down by mountains of blubber, making it impossible for her to lift them without grunting. Her belly is so enormous that it feels like it's consuming her entire body, making it impossible for her to see anything below her massive gut. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sick sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 51, {character_stats.name}'s body is now beyond super obese, and she's starting to feel like she's reached a point of no return. Her face is now a round and bloated mess, with chins upon chins that swallow up her features. Her arms are so huge that they feel like they're going to explode, with thick layers of blubber that jiggle and wobble with every movement. Her belly is so enormous that it feels like it's suffocating her, making it impossible for her to breathe properly or even move around easily. Her hips and thighs are so massive that they're practically fused together, causing her to waddle like a penguin when she walks. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a mysterious and mesmerizing figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 52, {character_stats.name}'s body is now so massive that it's starting to feel like it's taking over her life. Her face is now a distorted and unrecognizable mess, with rolls of fat that swallow up her features and make it hard for her to breathe. Her arms are so huge that they feel like they're going to fall off, with thick layers of blubber that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's crushing her, making it impossible for her to move around easily or even stand up straight. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sickening sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 53, {character_stats.name}'s body is now so enormous that it's starting to feel like it's consuming her. Her face is now a bloated and puffy mess, with chins upon chins that cascade down her neck. Her arms are so massive that they feel like they're going to burst, with thick layers of blubber that make it impossible for her to do even the simplest of tasks. Her belly is so enormous that it feels like it's going to burst, causing her constant pain and discomfort. Her hips and thighs are so huge that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 54, {character_stats.name}'s body is now so huge that it's starting to feel like it's crushing her. Her face is now a round and puffy mess, with rolls of fat that swallow up her features and make it hard for her to breathe. Her arms are so massive that they feel like they're going to explode, with thick layers of blubber that make it impossible for her to do even the simplest of tasks. Her belly is so enormous that it feels like it's going to burst, causing her constant pain and discomfort. Her hips and thighs are so huge that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 55, {character_stats.name}'s body is now massively obese, and she's starting to feel like she's a prisoner in her own skin. Her face is now a grotesque and unrecognizable mess, with rolls of fat that seem to have a life of their own. Her arms are so huge that they feel like they're weighed down by tons of blubber, making it impossible for her to lift them without grunting. Her belly is so enormous that it feels like it's consuming her entire body, making it impossible for her to see anything below her massive gut. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sick sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 56, {character_stats.name}'s body is now beyond massively obese, and she's starting to feel like she's reaching the limits of what her body can handle. Her face is now a round and bloated mess, with chins upon chins that swallow up her features. Her arms are so huge that they feel like they're going to explode, with thick layers of blubber that jiggle and wobble with every movement. Her belly is so enormous that it feels like it's suffocating her, making it impossible for her to breathe properly or even move around easily. Her hips and thighs are so massive that they're practically fused together, causing her to waddle like a penguin when she walks. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a mysterious and mesmerizing figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 57, {character_stats.name}'s body is now so massive that it's starting to feel like it's taking over her life. Her face is now a distorted and unrecognizable mess, with rolls of fat that swallow up her features and make it hard for her to breathe. Her arms are so huge that they feel like they're going to fall off, with thick layers of blubber that ripple and jiggle with every movement. Her belly is so enormous that it feels like it's crushing her, making it impossible for her to move around easily or even stand up straight. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sickening sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 58, {character_stats.name}'s body is now so enormous that it's starting to feel like it's consuming her. Her face is now a bloated and puffy mess, with chins upon chins that cascade down her neck. Her arms are so massive that they feel like they're going to burst, with thick layers of blubber that make it impossible for her to do even the simplest of tasks. Her belly is so enormous that it feels like it's going to burst, causing her constant pain and discomfort. Her hips and thighs are so huge that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a mysterious and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 59, {character_stats.name}'s body is now so huge that it's starting to feel like it's crushing her. Her face is now a round and puffy mess, with rolls of fat that swallow up her features and make it hard for her to breathe. Her arms are so massive that they feel like they're going to explode, with thick layers of blubber that make it impossible for her to do even the simplest of tasks. Her belly is so enormous that it feels like it's going to burst, causing her constant pain and discomfort. Her hips and thighs are so huge that they're practically melded together, making it impossible for her to walk without waddling like a penguin. She's starting to feel like she's lost all hope of ever being thin again, but at the same time, she can't help but feel a twisted sense of pleasure from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath layers and layers of fat, making her a strange and alluring figure.</t>
+  </si>
+  <si>
+    <t>With a BMI of 60, {character_stats.name}'s body is now massively, enormously obese, and she's starting to feel like she's reached the end of the line. Her face is now a grotesque and unrecognizable mess, with rolls of fat that seem to have a life of their own. Her arms are so huge that they feel like they're weighed down by tons of blubber, making it impossible for her to lift them without grunting. Her belly is so enormous that it feels like it's consuming her entire body, making it impossible for her to see anything below her massive gut. Her hips and thighs are so huge that they're practically fused together, causing her to waddle like a duck when she walks. She's starting to feel like she's lost all control over her body, but at the same time, she can't help but feel a sick sense of satisfaction from her size. Even though she's disgusted by what she's become, there's still a part of her that finds it perversely erotic. Her beauty is still there, but it's now buried beneath mountains of fat, making her a strange and alluring figure.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +629,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,24 +651,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -676,10 +676,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -687,10 +687,10 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -698,10 +698,10 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -709,10 +709,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -720,10 +720,10 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -731,10 +731,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,10 +742,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -753,10 +753,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,10 +764,10 @@
         <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -775,10 +775,10 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -786,10 +786,10 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -797,10 +797,10 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -808,10 +808,10 @@
         <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -819,10 +819,10 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -830,10 +830,10 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,10 +841,10 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,10 +852,10 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -863,10 +863,10 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -874,10 +874,10 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -885,10 +885,10 @@
         <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,10 +896,10 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -907,10 +907,10 @@
         <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -918,10 +918,10 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,10 +929,10 @@
         <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -940,10 +940,10 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,10 +951,10 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -962,10 +962,10 @@
         <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -973,10 +973,10 @@
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,10 +984,10 @@
         <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -995,10 +995,10 @@
         <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1006,10 +1006,10 @@
         <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,10 +1017,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1028,10 +1028,10 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1039,10 +1039,10 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,10 +1050,10 @@
         <v>55</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,10 +1061,10 @@
         <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,10 +1072,10 @@
         <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1083,10 +1083,10 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1094,10 +1094,10 @@
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1105,10 +1105,10 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
